--- a/doc/scénarii_CU.xlsx
+++ b/doc/scénarii_CU.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="CU 1 devenir membre" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="CU1 devenir membre" sheetId="1" r:id="rId1"/>
+    <sheet name="CU2 visiter le site" sheetId="6" r:id="rId2"/>
+    <sheet name="CU3 s'authentifier" sheetId="2" r:id="rId3"/>
+    <sheet name="CU4 gérer ses informations memb" sheetId="3" r:id="rId4"/>
+    <sheet name="CU5 s'inscrire à la newsletter" sheetId="4" r:id="rId5"/>
+    <sheet name="CU6 contacter l'association" sheetId="5" r:id="rId6"/>
+    <sheet name="CU7 faire un don" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="185">
   <si>
     <t>Identification</t>
   </si>
@@ -113,9 +117,6 @@
     <t>L'internaute ne doit pas être inscrit et ne doit pas être connu du système</t>
   </si>
   <si>
-    <t>1. L'internaute clique du le bouton lien Devenez membre</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Acteurs principaux ou secondaires : </t>
     </r>
@@ -133,9 +134,6 @@
     <t>2. Le site affiche à l'internaute le formulaire d'adhésion pour devenir membre de l'association</t>
   </si>
   <si>
-    <t>3. L'internaute saisie dans son formulaire son nom, son prénom, son email, son téléphone, et son mot de passe</t>
-  </si>
-  <si>
     <t>4. Le site vérifie les informations saisies par l'internaute</t>
   </si>
   <si>
@@ -145,15 +143,6 @@
     <t>6. Le site insère les informations saisies par l'internaute dans sa base de données</t>
   </si>
   <si>
-    <t>7. L'administrateur vérifie les informations du nouveau membre</t>
-  </si>
-  <si>
-    <t>8. L'administrateur valide les informations saisie du nouvel internaute</t>
-  </si>
-  <si>
-    <t>9. Le nouveau membre est informé qui fait partie de l'association.</t>
-  </si>
-  <si>
     <t>SE1 : Informations saisies erroné</t>
   </si>
   <si>
@@ -185,6 +174,583 @@
   </si>
   <si>
     <t>Le scénario reprend au point 4 du scénario nominal</t>
+  </si>
+  <si>
+    <t>3. L'internaute saisie dans son formulaire son nom, son prénom, son email, son adresse, son téléphone, et son mot de passe</t>
+  </si>
+  <si>
+    <t>7. L'internaute reçoit un courriel lui demandant de valider son compte par un lien</t>
+  </si>
+  <si>
+    <t>8. L'internaute valide le lien envoyé</t>
+  </si>
+  <si>
+    <t>9. L'administrateur reçoit l'information par une notification</t>
+  </si>
+  <si>
+    <t>10. L'administrateur vérifie les informations du nouveau membre</t>
+  </si>
+  <si>
+    <t>11. L'administrateur valide les informations saisie du nouvel internaute</t>
+  </si>
+  <si>
+    <t>12. Le nouveau membre est informé qui fait partie de l'association.</t>
+  </si>
+  <si>
+    <t>Le SE3 commence au point 3 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le site indique que le mot de passe saisi est erroné ou existe déjà dans la base.</t>
+  </si>
+  <si>
+    <t>Titre : S'authentifier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résumé : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ce cas d'utilisation permet aux membres de s'authentier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dates de création et mise à jour : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>29/03/2019</t>
+    </r>
+  </si>
+  <si>
+    <t>Le formulaire de connexion doit être fonctionnel</t>
+  </si>
+  <si>
+    <t>1. L'internaute clique sur le bouton lien Devenez membre</t>
+  </si>
+  <si>
+    <t>1. Le membre clique sur le lien de connexion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acteurs principaux ou secondaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Le membre, le site</t>
+    </r>
+  </si>
+  <si>
+    <t>Le formulaire de modification doit être fonctionnel</t>
+  </si>
+  <si>
+    <t>1. Le membre clique sur le lien de mise à jour de ses informations</t>
+  </si>
+  <si>
+    <t>2. Le site affiche au membre le formulaire de connexion</t>
+  </si>
+  <si>
+    <t>2. Le site affiche au membre le formulaire où il y a ses informations saisies lors de l'inscription</t>
+  </si>
+  <si>
+    <t>7. Le site redirige le membre vers la page d'accueil</t>
+  </si>
+  <si>
+    <t>6. Le site affiche un message au membre qu'il est connecté</t>
+  </si>
+  <si>
+    <t>6. Le site affiche un message au membre que ces informations saisies sont bien modifiées</t>
+  </si>
+  <si>
+    <t>L'internaute doit être membre de l'association pour pouvoir se connecter</t>
+  </si>
+  <si>
+    <t>Titre : Gérer ses informations membre</t>
+  </si>
+  <si>
+    <t>Titre : S'inscrire à la newsletter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résumé : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ce cas d'utilisation permet aux membres de gérer ses informations saisies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résumé : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ce cas d'utilisation permet aux membres de s'inscrire à la newsletter</t>
+    </r>
+  </si>
+  <si>
+    <t>La page du profil du membre doit être fonctionnel</t>
+  </si>
+  <si>
+    <t>1. Le membre clique sur le lien de son profil où il y a l'ensemble de ses informations</t>
+  </si>
+  <si>
+    <t>2. Le site affiche au membre sa page profil avec une case s'inscrire à la lettre d'information</t>
+  </si>
+  <si>
+    <t>3. Le membre saisit dans ce formulaire les changements qu'il souhaite apporter en les saisissant dans les champs et valide ses choix</t>
+  </si>
+  <si>
+    <t>3. Le membre saisit dans ce formulaire son nom d'utilisateur et son mot de passe et valide ses choix</t>
+  </si>
+  <si>
+    <t>3. Le membre coche la case "s'inscrire à la lettre d'information" et valide son choix</t>
+  </si>
+  <si>
+    <t>6. Le membre reçoit un courriel qu'il est bien inscrit à la lettre d'information</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résumé : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ce cas d'utilisation permet à l'internaute non membre de visiter le site</t>
+    </r>
+  </si>
+  <si>
+    <t>1. L'internaute rentre dans son moteur de recherche les mots clé de l'association</t>
+  </si>
+  <si>
+    <t>2. Le moteur de recherche affiche à l'internaute les résultats référencés de sa recherche sur l'association</t>
+  </si>
+  <si>
+    <t>4. L'internaute clique sur le lien de l'association</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acteurs principaux ou secondaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'internaute, le moteur de recherche, le site</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Le moteur de recherche lui dirige vers la page de l'association</t>
+  </si>
+  <si>
+    <t>6. L'internaute visite le site notamment la page d'accueil où il y a la présentation de l'assocation, les projets, le formulaire de contact</t>
+  </si>
+  <si>
+    <t>3. L'internaute trouve avec les résultats affichés l'association qui l'intéresse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résumé : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ce cas d'utilisation permet à l'internaute et aux membres de pouvoir contacter l'association</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acteurs principaux ou secondaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'internaute, le membre, le site, l'administrateur</t>
+    </r>
+  </si>
+  <si>
+    <t>Le formulaire de contact doit être fonctionnel</t>
+  </si>
+  <si>
+    <t>1. L'internaute non membre ou le membre de l'association accède au formulaire de contact</t>
+  </si>
+  <si>
+    <t>2. L'internaute non membre ou le membre de l'association saisit son nom, son email et le corps du message</t>
+  </si>
+  <si>
+    <t>3. L'internaute non membre ou le membre de l'association valide ses choix</t>
+  </si>
+  <si>
+    <t>4. Le site enregistre la validation de l'internaute non membre ou le membre de l'assocation</t>
+  </si>
+  <si>
+    <t>5. L'internaute non membre ou le membre de l'association reçoit la validation de son message par courriel</t>
+  </si>
+  <si>
+    <t>6. L'administrateur du site reçoit une notification qu'il a bien reçu son message</t>
+  </si>
+  <si>
+    <t>7. L'administrateur répond à l'internaute non membre ou au membre de l'assocation par courriel et lui envoie</t>
+  </si>
+  <si>
+    <t>8. L'internaute non membre ou le membre de l'association reçoit un courriel avec la réponse de l'administrateur du site</t>
+  </si>
+  <si>
+    <t>Titre : Contacter l'association</t>
+  </si>
+  <si>
+    <t>Titre : Faire un don</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résumé : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ce cas d'utilisation permet à l'internaute et au membre de faire un don en ligne</t>
+    </r>
+  </si>
+  <si>
+    <t>Le formulaire de don doit être fonctionnel</t>
+  </si>
+  <si>
+    <t>1. L'internaute non membre ou le membre de l'association clique sur le lien en bas de page "Faire un don"</t>
+  </si>
+  <si>
+    <t>2. L'internaute non membre ou le membre de l'association saisit son don et valide</t>
+  </si>
+  <si>
+    <t>SE1 : La recherche de l'association n'a pas abouti</t>
+  </si>
+  <si>
+    <t>Le SE1 commence au point 1 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le moteur de recherche ne trouve pas les occurrences de la requêtes écrites par l'internaute</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 2 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le SE2 commence au point 4 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le lien du site ne fonctionne pas et la page d'accueil ne s'affiche pas</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 3 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 1 du scénario nominal</t>
+  </si>
+  <si>
+    <t>SE3 : Les mots de passe ne correspondent pas</t>
+  </si>
+  <si>
+    <t>SE2 : Le site est non disponible (erreur 500)</t>
+  </si>
+  <si>
+    <t>Le moteur de recherche est hors service</t>
+  </si>
+  <si>
+    <t>Le site n'est pas en ligne</t>
+  </si>
+  <si>
+    <t>La connexion internet est indisponible</t>
+  </si>
+  <si>
+    <t>L'internaute accède au site internet de l'association</t>
+  </si>
+  <si>
+    <t>SE1 : Le membre ne connait plus ses identifiants de connexion</t>
+  </si>
+  <si>
+    <t>Le SE1 commence au point 2 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le membre se souvient plus de ses identifiants de connexion, il demande alors un nouveau mot de passe en renvoyant son email dans un formulaire; Il reçoit son nouveau mot de passe par mail</t>
+  </si>
+  <si>
+    <t>SE2 : Le site membre saisit des identifiants invalides</t>
+  </si>
+  <si>
+    <t>Les identifiants saisies par le membre sont invalides ou ne sont pas connu du site internet</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 5 du scénario nominal</t>
+  </si>
+  <si>
+    <t>La vérification pour la connexion n'a pas abouti</t>
+  </si>
+  <si>
+    <t>Le site internet est indisponible</t>
+  </si>
+  <si>
+    <t>La base de données est défaillante</t>
+  </si>
+  <si>
+    <t>Le membre accède à sa page membre après avoir rempli le formulaire de connexion avec les bons identifiants</t>
+  </si>
+  <si>
+    <t>Le membre doit être connecter pour accéder à sa page personnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE1 : Le membre renseigne des informations erroné </t>
+  </si>
+  <si>
+    <t>Le membre se trompe en modifiant ses informations, il met à jour des informations qui ne sont pas en corrélation avec le type du champ (email dans le champ telephone par exemple)</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 6 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le formulaire de connexion n'est pas fonctionnel</t>
+  </si>
+  <si>
+    <t>Le formulaire de modification n'est pas fonctionnel</t>
+  </si>
+  <si>
+    <t>La vérification pour la modification des informations n'a pas abouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La base de données est défaillante </t>
+  </si>
+  <si>
+    <t>La base de données n'effectue pas la mise à jour des informations</t>
+  </si>
+  <si>
+    <t>La base de données a parrallèlement aussi mis à jour les informations membres</t>
+  </si>
+  <si>
+    <t>Le membre met à jour ses informations de sa page personnelle et y est informé par mail</t>
+  </si>
+  <si>
+    <t>SE1 : Le membre ne reçoit pas la newsletter</t>
+  </si>
+  <si>
+    <t>Le SE1 commence au point 5 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le membre ne reçoit pas la newsletter malgré le fait qu'il a bien déclaré qu'il veut voulait s'inscrire</t>
+  </si>
+  <si>
+    <t>La newsletter ne s'envoie pas aux membres désireux de la recevoir</t>
+  </si>
+  <si>
+    <t>Le champ pour s'inscrire à la newsletter n'est pas fonctionnel</t>
+  </si>
+  <si>
+    <t>Post conditions</t>
+  </si>
+  <si>
+    <t>Préconditions</t>
+  </si>
+  <si>
+    <t>Le membre reçoit bien la newsletter après avoir demandé de la recevoir</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 8 du scénario nominal</t>
+  </si>
+  <si>
+    <t>La base de données dsyfonctionne</t>
+  </si>
+  <si>
+    <t>SE1 : L'internaute non membre ou le membre n'arrive pas à valider son don</t>
+  </si>
+  <si>
+    <t>L'internaute non membre ou le membre de l'association n'arrive pas à valider son don et son don n'est pas pris en compte</t>
+  </si>
+  <si>
+    <t>Le système de paiement en ligne ne valide pas la transaction (manque de solde suffisant, carte bancaire périmée, opposition sur le compte…)</t>
+  </si>
+  <si>
+    <t>Le formulaire de dont est inaccessible</t>
+  </si>
+  <si>
+    <t>L'internaute non membre ou le membre de l'association n'a pas de compte PayPal</t>
+  </si>
+  <si>
+    <t>Le système de paiement en ligne dysfonctionne</t>
+  </si>
+  <si>
+    <t>Le don est validé par le système de paiment en ligne et la banque</t>
+  </si>
+  <si>
+    <t>SE1 : L'internaute ou le membre saisissent des informations erronnées</t>
+  </si>
+  <si>
+    <t>L'internaute ou le membre saisissent des informations erronnées (un tel à la place de l'email, un email à la place du nom)</t>
+  </si>
+  <si>
+    <t>SE2 : L'administrateur ne répond pas aux internautes ou aux membres</t>
+  </si>
+  <si>
+    <t>Le SE2 commence au point 6 du scénario nominal</t>
+  </si>
+  <si>
+    <t>L'administrateur du site ne répond pas aux messages des internautes ou des membres</t>
+  </si>
+  <si>
+    <t>SE3 : L'administrateur se trompe de destinataires</t>
+  </si>
+  <si>
+    <t>Le SE3 commence au point 7 du scénario nominal</t>
+  </si>
+  <si>
+    <t>L'administrateur du site se trompe de destinataires lors de l'envoi de la réponse des internautes ou des membres</t>
+  </si>
+  <si>
+    <t>Le formulaire de contact est indisponible</t>
+  </si>
+  <si>
+    <t>L'envoi des notifications ne sont pas fonctionnel</t>
+  </si>
+  <si>
+    <t>La base de données dysfonctionne</t>
+  </si>
+  <si>
+    <t>Le membre reçoit une notification comme quoi que son message sera traité</t>
+  </si>
+  <si>
+    <t>L'administrateur envoie sa réponse aux internautes et aux membres</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acteurs principaux ou secondaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'internaute, le membre, le site, l'administrateur, le système de paiement en ligne</t>
+    </r>
+  </si>
+  <si>
+    <t>3. L'internaute non membre ou le membre de l'association choisit son mode de paiement et valide</t>
+  </si>
+  <si>
+    <t>5. Le site affiche l'ensembre des coordonnées bancaires saisies et lui demande de valider</t>
+  </si>
+  <si>
+    <t>6. L'internaute non membre ou le membre de l'association valide ses coordonnées</t>
+  </si>
+  <si>
+    <t>7. Le site redirige l'internaute non membre ou le membre de l'association vers le site de la banque</t>
+  </si>
+  <si>
+    <t>9. L'internaute non membre ou le membre de l'association entre le code d'authentification et valide</t>
+  </si>
+  <si>
+    <t>11. L'internaute non membre ou le membre de l'association reçoit une notification qui confirme son don</t>
+  </si>
+  <si>
+    <t>SE2  : L'internaute non membre ou le membre de l'association donne un mauvais montant de don</t>
+  </si>
+  <si>
+    <t>Le SE2 commence au point 2 du scénario nominal</t>
+  </si>
+  <si>
+    <t>L'internaute non membre ou le membre de l'association donne un montant de don supérieur à ce qu'il souhaitait</t>
+  </si>
+  <si>
+    <t>SE3  : L'internaute non membre ou le membre de l'association a donné des informations bancaires érronnées</t>
+  </si>
+  <si>
+    <t>Le SE3 commence au point 4 du scénario nominal</t>
+  </si>
+  <si>
+    <t>L'internaute non membre ou le membre de l'association a donné de mauvaises informations bancaires après avoir validé</t>
+  </si>
+  <si>
+    <t>8. L'internaute non membre ou le membre de l'association reçoit un code d'authentification sur son téléphone</t>
+  </si>
+  <si>
+    <t>Le SE4 commence au point 8 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 10 du scénario nominal</t>
+  </si>
+  <si>
+    <t>SE4 : L'internaute non membre ou le membre de l'association a saisit un code d'authentification non valide</t>
+  </si>
+  <si>
+    <t>L'internaute non membre ou le membre de l'association a saisit sur le site de sa banque un code d'authentification non valide</t>
+  </si>
+  <si>
+    <t>10. Le système de paiement en ligne valide la transaction de l'internaute ou du membre</t>
+  </si>
+  <si>
+    <t>SE5 : Le système de paiement en ligne ne valide pas la transaction</t>
+  </si>
+  <si>
+    <t>Le SE5 commence au point 10 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le scénario reprend au point 11 du scénario nominal</t>
+  </si>
+  <si>
+    <t>Le site de la banque est indisponible</t>
+  </si>
+  <si>
+    <t>Le site de la banque ne répond pas à la transaction</t>
+  </si>
+  <si>
+    <t>Le site de la banque doit être fonctionnel et accessible</t>
+  </si>
+  <si>
+    <t>Le paiement en ligne doit être sécurisé</t>
+  </si>
+  <si>
+    <t>4. L'internaute non membre ou le membre de l'association saisit ses coordonnées bancaires</t>
   </si>
 </sst>
 </file>
@@ -231,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -251,6 +817,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -581,7 +1160,7 @@
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -612,7 +1191,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -638,83 +1217,83 @@
     <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>24</v>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -724,57 +1303,92 @@
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="36" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="40" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -783,24 +1397,1673 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/scénarii_CU.xlsx
+++ b/doc/scénarii_CU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="CU1 devenir membre" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>10. L'administrateur vérifie les informations du nouveau membre</t>
   </si>
   <si>
-    <t>11. L'administrateur valide les informations saisie du nouvel internaute</t>
-  </si>
-  <si>
     <t>12. Le nouveau membre est informé qui fait partie de l'association.</t>
   </si>
   <si>
@@ -751,6 +748,9 @@
   </si>
   <si>
     <t>4. L'internaute non membre ou le membre de l'association saisit ses coordonnées bancaires</t>
+  </si>
+  <si>
+    <t>11. L'administrateur valide les informations saisies du nouvel internaute</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
     <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1267,12 +1267,12 @@
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1323,17 +1323,17 @@
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
     <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1414,25 +1414,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="7"/>
     </row>
@@ -1484,37 +1484,37 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,49 +1526,49 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,19 +1580,19 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,14 +1619,14 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B16" sqref="B16:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1653,25 +1653,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1717,13 +1717,13 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,19 +1735,19 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,12 +1765,12 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,31 +1782,31 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,13 +1818,13 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,31 +1836,31 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,14 +1887,14 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1908,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1922,25 +1922,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1986,13 +1986,13 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,19 +2004,19 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,12 +2034,12 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,25 +2051,25 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,37 +2081,37 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,19 +2138,19 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2178,25 +2178,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -2242,13 +2242,13 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,19 +2260,19 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,25 +2302,25 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,31 +2332,31 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2417,25 +2417,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2481,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,47 +2493,47 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,19 +2545,19 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,43 +2569,43 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,31 +2617,31 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2675,12 +2675,12 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +2693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2708,25 +2708,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,19 +2772,19 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,62 +2796,62 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,121 +2863,121 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,43 +2989,43 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scénarii_CU.xlsx
+++ b/doc/scénarii_CU.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CU1 devenir membre" sheetId="1" r:id="rId1"/>
     <sheet name="CU2 visiter le site" sheetId="6" r:id="rId2"/>
     <sheet name="CU3 s'authentifier" sheetId="2" r:id="rId3"/>
     <sheet name="CU4 gérer ses informations memb" sheetId="3" r:id="rId4"/>
-    <sheet name="CU5 s'inscrire à la newsletter" sheetId="4" r:id="rId5"/>
-    <sheet name="CU6 contacter l'association" sheetId="5" r:id="rId6"/>
+    <sheet name="CU5 contacter l'association" sheetId="5" r:id="rId5"/>
+    <sheet name="CU6 s'inscrire à la newsletter" sheetId="4" r:id="rId6"/>
     <sheet name="CU7 faire un don" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -419,9 +419,6 @@
     <t>3. L'internaute non membre ou le membre de l'association valide ses choix</t>
   </si>
   <si>
-    <t>4. Le site enregistre la validation de l'internaute non membre ou le membre de l'assocation</t>
-  </si>
-  <si>
     <t>5. L'internaute non membre ou le membre de l'association reçoit la validation de son message par courriel</t>
   </si>
   <si>
@@ -751,6 +748,9 @@
   </si>
   <si>
     <t>11. L'administrateur valide les informations saisies du nouvel internaute</t>
+  </si>
+  <si>
+    <t>4. Le site enregistre le message de l'internaute non membre ou du membre dans la base de données</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
     <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="7"/>
     </row>
@@ -1526,49 +1526,49 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,19 +1580,19 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,14 +1619,14 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1782,31 +1782,31 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,13 +1818,13 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,31 +1836,31 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,14 +1887,14 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1992,7 +1992,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,25 +2051,25 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,37 +2081,37 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,19 +2138,19 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2160,6 +2160,297 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -2229,7 +2520,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -2302,25 +2593,25 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,31 +2623,31 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,302 +2681,11 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2708,19 +2708,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,19 +2772,19 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,62 +2796,62 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,121 +2863,121 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,43 +2989,43 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scénarii_CU.xlsx
+++ b/doc/scénarii_CU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" activeTab="4"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CU1 devenir membre" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="186">
   <si>
     <t>Identification</t>
   </si>
@@ -315,19 +315,10 @@
     <t>La page du profil du membre doit être fonctionnel</t>
   </si>
   <si>
-    <t>1. Le membre clique sur le lien de son profil où il y a l'ensemble de ses informations</t>
-  </si>
-  <si>
-    <t>2. Le site affiche au membre sa page profil avec une case s'inscrire à la lettre d'information</t>
-  </si>
-  <si>
     <t>3. Le membre saisit dans ce formulaire les changements qu'il souhaite apporter en les saisissant dans les champs et valide ses choix</t>
   </si>
   <si>
     <t>3. Le membre saisit dans ce formulaire son nom d'utilisateur et son mot de passe et valide ses choix</t>
-  </si>
-  <si>
-    <t>3. Le membre coche la case "s'inscrire à la lettre d'information" et valide son choix</t>
   </si>
   <si>
     <t>6. Le membre reçoit un courriel qu'il est bien inscrit à la lettre d'information</t>
@@ -751,6 +742,18 @@
   </si>
   <si>
     <t>4. Le site enregistre le message de l'internaute non membre ou du membre dans la base de données</t>
+  </si>
+  <si>
+    <t>1. Le membre se rend sur la page d'inscription à la newsletter</t>
+  </si>
+  <si>
+    <t>2. Le site lui affiche l'interface d'inscription à la newsletter</t>
+  </si>
+  <si>
+    <t>3. Le membre rentre son email et valide</t>
+  </si>
+  <si>
+    <t>La page d'inscription à la newsletter ne s'affiche pas</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1267,7 +1270,7 @@
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1326,7 @@
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1380,7 @@
     <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1420,13 +1423,13 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1465,7 +1468,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" s="7"/>
     </row>
@@ -1484,37 +1487,37 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,49 +1529,49 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,19 +1583,19 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,14 +1622,14 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1747,7 +1750,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,31 +1785,31 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,13 +1821,13 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,31 +1839,31 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1887,14 +1890,14 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +1976,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1992,7 +1995,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2019,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,25 +2054,25 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,37 +2084,37 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,19 +2141,19 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -2178,19 +2181,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2245,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,47 +2257,47 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2306,19 +2309,19 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2330,43 +2333,43 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,31 +2381,31 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,12 +2439,12 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2452,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2523,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -2551,19 +2554,19 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2584,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,25 +2596,25 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,46 +2626,48 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -2670,18 +2675,22 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3" t="s">
-        <v>133</v>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2708,19 +2717,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,19 +2781,19 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,62 +2805,62 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,121 +2872,121 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,43 +2998,43 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +3068,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scénarii_CU.xlsx
+++ b/doc/scénarii_CU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" activeTab="5"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CU1 devenir membre" sheetId="1" r:id="rId1"/>
@@ -204,20 +204,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Résumé : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ce cas d'utilisation permet aux membres de s'authentier</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Dates de création et mise à jour : </t>
     </r>
     <r>
@@ -502,9 +488,6 @@
     <t>Le membre se souvient plus de ses identifiants de connexion, il demande alors un nouveau mot de passe en renvoyant son email dans un formulaire; Il reçoit son nouveau mot de passe par mail</t>
   </si>
   <si>
-    <t>SE2 : Le site membre saisit des identifiants invalides</t>
-  </si>
-  <si>
     <t>Les identifiants saisies par le membre sont invalides ou ne sont pas connu du site internet</t>
   </si>
   <si>
@@ -754,6 +737,23 @@
   </si>
   <si>
     <t>La page d'inscription à la newsletter ne s'affiche pas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Résumé : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ce cas d'utilisation permet aux membres de s'authentifier</t>
+    </r>
+  </si>
+  <si>
+    <t>SE2 : Le membre saisit des identifiants invalides</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
     <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
     <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1417,25 +1417,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="7"/>
     </row>
@@ -1487,37 +1487,37 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,49 +1529,49 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,19 +1583,19 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,14 +1622,14 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1641,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1662,19 +1662,19 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1720,13 +1720,13 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,19 +1738,19 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,12 +1768,12 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,31 +1785,31 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,13 +1821,13 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,31 +1839,31 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,14 +1890,14 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1925,25 +1925,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1989,13 +1989,13 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,19 +2007,19 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,12 +2037,12 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,25 +2054,25 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,37 +2084,37 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,19 +2141,19 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2181,25 +2181,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,47 +2257,47 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,19 +2309,19 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,43 +2333,43 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,31 +2381,31 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,12 +2439,12 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2472,25 +2472,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -2536,13 +2536,13 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,19 +2554,19 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,25 +2596,25 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2626,37 +2626,37 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2717,25 +2717,25 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,19 +2781,19 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,62 +2805,62 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,121 +2872,121 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,43 +2998,43 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scénarii_CU.xlsx
+++ b/doc/scénarii_CU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" activeTab="2"/>
+    <workbookView xWindow="576" yWindow="36" windowWidth="17064" windowHeight="7176" tabRatio="806" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CU1 devenir membre" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="187">
   <si>
     <t>Identification</t>
   </si>
@@ -298,9 +298,6 @@
     </r>
   </si>
   <si>
-    <t>La page du profil du membre doit être fonctionnel</t>
-  </si>
-  <si>
     <t>3. Le membre saisit dans ce formulaire les changements qu'il souhaite apporter en les saisissant dans les champs et valide ses choix</t>
   </si>
   <si>
@@ -539,18 +536,9 @@
     <t>Le membre met à jour ses informations de sa page personnelle et y est informé par mail</t>
   </si>
   <si>
-    <t>SE1 : Le membre ne reçoit pas la newsletter</t>
-  </si>
-  <si>
     <t>Le SE1 commence au point 5 du scénario nominal</t>
   </si>
   <si>
-    <t>Le membre ne reçoit pas la newsletter malgré le fait qu'il a bien déclaré qu'il veut voulait s'inscrire</t>
-  </si>
-  <si>
-    <t>La newsletter ne s'envoie pas aux membres désireux de la recevoir</t>
-  </si>
-  <si>
     <t>Le champ pour s'inscrire à la newsletter n'est pas fonctionnel</t>
   </si>
   <si>
@@ -576,9 +564,6 @@
   </si>
   <si>
     <t>Le système de paiement en ligne ne valide pas la transaction (manque de solde suffisant, carte bancaire périmée, opposition sur le compte…)</t>
-  </si>
-  <si>
-    <t>Le formulaire de dont est inaccessible</t>
   </si>
   <si>
     <t>L'internaute non membre ou le membre de l'association n'a pas de compte PayPal</t>
@@ -727,13 +712,7 @@
     <t>4. Le site enregistre le message de l'internaute non membre ou du membre dans la base de données</t>
   </si>
   <si>
-    <t>1. Le membre se rend sur la page d'inscription à la newsletter</t>
-  </si>
-  <si>
     <t>2. Le site lui affiche l'interface d'inscription à la newsletter</t>
-  </si>
-  <si>
-    <t>3. Le membre rentre son email et valide</t>
   </si>
   <si>
     <t>La page d'inscription à la newsletter ne s'affiche pas</t>
@@ -754,6 +733,41 @@
   </si>
   <si>
     <t>SE2 : Le membre saisit des identifiants invalides</t>
+  </si>
+  <si>
+    <t>Le formulaire d'inscription à la newsletter doit être fonctionnel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acteurs principaux ou secondaires : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'internaute non membre, le membre, le site</t>
+    </r>
+  </si>
+  <si>
+    <t>1. L'internaute non membre ou le membre se rend sur la page d'inscription à la newsletter</t>
+  </si>
+  <si>
+    <t>3. L'internaute non membre ou le membre rentre son email et valide</t>
+  </si>
+  <si>
+    <t>La newsletter ne s'envoie pas aux abonnés</t>
+  </si>
+  <si>
+    <t>SE1 : L'internaute non membre ou le membre ne reçoit pas la newsletter</t>
+  </si>
+  <si>
+    <t>L'internaute non membre ou le membre ne reçoit pas la newsletter malgré le fait qu'il a bien déclaré qu'il veut voulait s'inscrire</t>
+  </si>
+  <si>
+    <t>Le formulaire de don est inaccessible</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1208,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1270,7 +1284,7 @@
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1340,7 @@
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1380,7 +1394,7 @@
     <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1423,13 +1437,13 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1482,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7"/>
     </row>
@@ -1487,37 +1501,37 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,49 +1543,49 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,19 +1597,19 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,14 +1636,14 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1662,7 +1676,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1707,7 +1721,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1750,7 +1764,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,31 +1799,31 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,13 +1835,13 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,31 +1853,31 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,14 +1904,14 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1925,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B22"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1990,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -1995,7 +2009,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2033,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,25 +2068,25 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,37 +2098,37 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,19 +2155,19 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2166,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2181,19 +2195,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2259,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,47 +2271,47 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2309,19 +2323,19 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,43 +2347,43 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,31 +2395,31 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,12 +2453,12 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2455,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2484,7 +2498,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2523,7 +2537,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1"/>
     </row>
@@ -2536,138 +2550,136 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="4"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -2675,22 +2687,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3" t="s">
-        <v>128</v>
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2702,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2717,19 +2725,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,19 +2789,19 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,62 +2813,62 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,121 +2880,121 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,43 +3006,43 @@
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3076,7 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
